--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="17040" windowHeight="4920"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="12492" windowHeight="5304" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O15"/>
+  <oleSize ref="A1:J19"/>
 </workbook>
 </file>
 
@@ -37,31 +37,31 @@
     <t>Procter</t>
   </si>
   <si>
+    <t>@Abcd1234</t>
+  </si>
+  <si>
+    <t>pc.controller1.5 @Abcd1234 Controller</t>
+  </si>
+  <si>
+    <t>pc.controller1.5</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>dec4th.examtaker.5</t>
+  </si>
+  <si>
+    <t>ExamTaker</t>
+  </si>
+  <si>
+    <t>jan.procter.5</t>
+  </si>
+  <si>
+    <t>@Abcd1234A</t>
+  </si>
+  <si>
     <t>prodautomation.procter.5</t>
-  </si>
-  <si>
-    <t>@Abcd1234</t>
-  </si>
-  <si>
-    <t>pc.controller1.5 @Abcd1234 Controller</t>
-  </si>
-  <si>
-    <t>pc.controller1.5</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>procter.automation.5</t>
-  </si>
-  <si>
-    <t>dec4th.examtaker.5</t>
-  </si>
-  <si>
-    <t>ExamTaker</t>
-  </si>
-  <si>
-    <t>@Abcd1234#</t>
   </si>
 </sst>
 </file>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,21 +433,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -455,13 +455,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +499,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -510,10 +510,10 @@
     </row>
     <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -523,6 +523,7 @@
     <row r="5" spans="1:3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -34,12 +34,6 @@
   </si>
   <si>
     <t>Controller</t>
-  </si>
-  <si>
-    <t>ExamName</t>
-  </si>
-  <si>
-    <t>ScheduleName</t>
   </si>
   <si>
     <t>Token</t>
@@ -80,18 +74,12 @@
     <t>controller02</t>
   </si>
   <si>
-    <t>Grade01</t>
-  </si>
-  <si>
     <t>controller11</t>
   </si>
   <si>
     <t>stage</t>
   </si>
   <si>
-    <t>Pre Final</t>
-  </si>
-  <si>
     <t>mark</t>
   </si>
   <si>
@@ -104,19 +92,16 @@
     <t>paul</t>
   </si>
   <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>anthon</t>
-  </si>
-  <si>
-    <t>andre</t>
-  </si>
-  <si>
-    <t>pau</t>
-  </si>
-  <si>
-    <t>Pre Finals</t>
+    <t>michael</t>
+  </si>
+  <si>
+    <t>matthew</t>
+  </si>
+  <si>
+    <t>ethan</t>
+  </si>
+  <si>
+    <t>joseph</t>
   </si>
 </sst>
 </file>
@@ -130,12 +115,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,16 +147,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,27 +176,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,33 +513,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13" style="8" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="13" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="52.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -544,30 +548,24 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="7">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -576,64 +574,58 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:13" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5">
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:13" ht="43.8" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8">
+    <row r="4" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,10 +635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,19 +647,17 @@
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -678,21 +668,15 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -702,17 +686,15 @@
         <v>5</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="7">
+    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -722,15 +704,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>27</v>
+    <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -741,14 +721,8 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>password</t>
   </si>
@@ -80,35 +80,23 @@
     <t>stage</t>
   </si>
   <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>anthony</t>
-  </si>
-  <si>
-    <t>andrew</t>
-  </si>
-  <si>
-    <t>paul</t>
-  </si>
-  <si>
-    <t>michael</t>
-  </si>
-  <si>
-    <t>matthew</t>
-  </si>
-  <si>
-    <t>ethan</t>
-  </si>
-  <si>
-    <t>joseph</t>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>connor</t>
+  </si>
+  <si>
+    <t>harry</t>
+  </si>
+  <si>
+    <t>callum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +130,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color rgb="FF191919"/>
+      <name val="EF Circular Latin"/>
     </font>
   </fonts>
   <fills count="3">
@@ -163,12 +144,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
+        <fgColor rgb="FFF7F7F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,16 +159,31 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFA2A9B1"/>
+        <color rgb="FFDFDFDF"/>
       </left>
       <right style="medium">
-        <color rgb="FFA2A9B1"/>
+        <color rgb="FFB3B3B2"/>
       </right>
       <top style="medium">
-        <color rgb="FFA2A9B1"/>
+        <color rgb="FFDFDFDF"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFA2A9B1"/>
+        <color rgb="FFDFDFDF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB3B3B2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFDFDF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDFDFDF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDFDFDF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -208,9 +204,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -516,10 +514,10 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
@@ -529,7 +527,7 @@
     <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -558,7 +556,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -578,12 +576,12 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
+    <row r="3" spans="1:11" ht="15" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -598,12 +596,12 @@
       <c r="J3" s="6"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
+    <row r="4" spans="1:11" ht="42.6" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -638,10 +636,10 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
@@ -649,7 +647,7 @@
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -669,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -687,11 +685,11 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15" thickBot="1">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -705,11 +703,11 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4">
@@ -737,7 +735,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -90,13 +90,25 @@
   </si>
   <si>
     <t>callum</t>
+  </si>
+  <si>
+    <t>lukas</t>
+  </si>
+  <si>
+    <t>noah</t>
+  </si>
+  <si>
+    <t>ottos</t>
+  </si>
+  <si>
+    <t>schmidts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +145,12 @@
       <sz val="10"/>
       <color rgb="FF191919"/>
       <name val="EF Circular Latin"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -191,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -210,6 +228,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -556,7 +576,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -576,12 +596,12 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
+    <row r="3" spans="1:11">
+      <c r="A3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -596,12 +616,12 @@
       <c r="J3" s="6"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="42.6" thickBot="1">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>23</v>
+    <row r="4" spans="1:11" ht="42">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -635,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>password</t>
   </si>
@@ -80,35 +80,23 @@
     <t>stage</t>
   </si>
   <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>connor</t>
-  </si>
-  <si>
-    <t>harry</t>
-  </si>
-  <si>
-    <t>callum</t>
-  </si>
-  <si>
-    <t>lukas</t>
-  </si>
-  <si>
-    <t>noah</t>
-  </si>
-  <si>
-    <t>ottos</t>
-  </si>
-  <si>
-    <t>schmidts</t>
+    <t>lukass</t>
+  </si>
+  <si>
+    <t>noahs</t>
+  </si>
+  <si>
+    <t>ottoss</t>
+  </si>
+  <si>
+    <t>schimidts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,31 +131,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF191919"/>
-      <name val="EF Circular Latin"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -175,41 +152,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFDFDFDF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB3B3B2"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFDFDF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFDFDF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB3B3B2"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFDFDFDF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFDFDFDF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFDFDFDF"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -222,14 +169,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,11 +474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
     <col min="2" max="2" width="13" style="6" customWidth="1"/>
@@ -547,7 +488,7 @@
     <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
@@ -576,7 +517,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
@@ -596,12 +537,12 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -616,12 +557,12 @@
       <c r="J3" s="6"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="42">
-      <c r="A4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
+    <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -655,11 +596,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
@@ -667,7 +608,7 @@
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -687,7 +628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -705,8 +646,8 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -723,8 +664,8 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -755,7 +696,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>lukass</t>
-  </si>
-  <si>
-    <t>noahs</t>
-  </si>
-  <si>
-    <t>ottoss</t>
-  </si>
-  <si>
-    <t>schimidts</t>
+    <t>roberto</t>
+  </si>
+  <si>
+    <t>liam</t>
+  </si>
+  <si>
+    <t>ramon</t>
+  </si>
+  <si>
+    <t>nathaniel</t>
   </si>
 </sst>
 </file>
@@ -130,10 +130,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF0B3F51"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,8 +170,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,10 +543,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -558,10 +563,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -596,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,10 +652,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -665,10 +670,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -80,16 +80,28 @@
     <t>stage</t>
   </si>
   <si>
-    <t>roberto</t>
-  </si>
-  <si>
-    <t>liam</t>
-  </si>
-  <si>
-    <t>ramon</t>
-  </si>
-  <si>
-    <t>nathaniel</t>
+    <t>parker</t>
+  </si>
+  <si>
+    <t>baker</t>
+  </si>
+  <si>
+    <t>nelson</t>
+  </si>
+  <si>
+    <t>edwards</t>
+  </si>
+  <si>
+    <t>parkersh</t>
+  </si>
+  <si>
+    <t>bakersh</t>
+  </si>
+  <si>
+    <t>nelsonh</t>
+  </si>
+  <si>
+    <t>edwardssh</t>
   </si>
 </sst>
 </file>
@@ -479,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,10 +555,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -563,10 +575,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -601,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,11 +664,11 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -670,11 +682,11 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,18 +80,6 @@
     <t>stage</t>
   </si>
   <si>
-    <t>parker</t>
-  </si>
-  <si>
-    <t>baker</t>
-  </si>
-  <si>
-    <t>nelson</t>
-  </si>
-  <si>
-    <t>edwards</t>
-  </si>
-  <si>
     <t>parkersh</t>
   </si>
   <si>
@@ -102,6 +90,18 @@
   </si>
   <si>
     <t>edwardssh</t>
+  </si>
+  <si>
+    <t>parkers</t>
+  </si>
+  <si>
+    <t>bakers</t>
+  </si>
+  <si>
+    <t>nelsons</t>
+  </si>
+  <si>
+    <t>edwardss</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,10 +556,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -665,10 +665,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -683,10 +683,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>password</t>
   </si>
@@ -80,35 +80,23 @@
     <t>stage</t>
   </si>
   <si>
-    <t>parkersh</t>
-  </si>
-  <si>
-    <t>bakersh</t>
-  </si>
-  <si>
-    <t>nelsonh</t>
-  </si>
-  <si>
-    <t>edwardssh</t>
-  </si>
-  <si>
-    <t>parkers</t>
-  </si>
-  <si>
-    <t>bakers</t>
-  </si>
-  <si>
-    <t>nelsons</t>
-  </si>
-  <si>
-    <t>edwardss</t>
+    <t>kevin</t>
+  </si>
+  <si>
+    <t>brian</t>
+  </si>
+  <si>
+    <t>george</t>
+  </si>
+  <si>
+    <t>timothy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +136,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,9 +180,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,11 +552,11 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>25</v>
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -575,11 +572,11 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>27</v>
+      <c r="A4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -613,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +664,7 @@
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>kevin</t>
-  </si>
-  <si>
-    <t>brian</t>
-  </si>
-  <si>
-    <t>george</t>
-  </si>
-  <si>
-    <t>timothy</t>
+    <t>georges</t>
+  </si>
+  <si>
+    <t>timothys</t>
+  </si>
+  <si>
+    <t>brians</t>
+  </si>
+  <si>
+    <t>kevins</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,10 +553,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -573,10 +573,10 @@
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,10 +662,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>kevins</t>
+  </si>
+  <si>
+    <t>kevinhs</t>
+  </si>
+  <si>
+    <t>brianhs</t>
+  </si>
+  <si>
+    <t>georgehs</t>
+  </si>
+  <si>
+    <t>timothyhs</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -610,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,10 +674,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -680,10 +692,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,28 +80,28 @@
     <t>stage</t>
   </si>
   <si>
-    <t>georges</t>
-  </si>
-  <si>
-    <t>timothys</t>
-  </si>
-  <si>
-    <t>brians</t>
-  </si>
-  <si>
-    <t>kevins</t>
-  </si>
-  <si>
-    <t>kevinhs</t>
-  </si>
-  <si>
-    <t>brianhs</t>
-  </si>
-  <si>
-    <t>georgehs</t>
-  </si>
-  <si>
-    <t>timothyhs</t>
+    <t>kevinhsr</t>
+  </si>
+  <si>
+    <t>brianhsr</t>
+  </si>
+  <si>
+    <t>georgehsr</t>
+  </si>
+  <si>
+    <t>timothyhsr</t>
+  </si>
+  <si>
+    <t>kevinsr</t>
+  </si>
+  <si>
+    <t>briansr</t>
+  </si>
+  <si>
+    <t>georgesr</t>
+  </si>
+  <si>
+    <t>timothysr</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,10 +565,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -585,10 +585,10 @@
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,10 +674,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -692,10 +692,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>password</t>
   </si>
@@ -80,28 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>kevinhsr</t>
-  </si>
-  <si>
-    <t>brianhsr</t>
-  </si>
-  <si>
-    <t>georgehsr</t>
-  </si>
-  <si>
-    <t>timothyhsr</t>
-  </si>
-  <si>
-    <t>kevinsr</t>
-  </si>
-  <si>
-    <t>briansr</t>
-  </si>
-  <si>
-    <t>georgesr</t>
-  </si>
-  <si>
-    <t>timothysr</t>
+    <t>kevinhsra</t>
+  </si>
+  <si>
+    <t>brianhsra</t>
+  </si>
+  <si>
+    <t>georgehsra</t>
+  </si>
+  <si>
+    <t>timothyhsra</t>
   </si>
 </sst>
 </file>
@@ -500,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,11 +552,11 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>25</v>
+      <c r="A3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -584,11 +572,11 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>27</v>
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -622,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,10 +661,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -691,10 +679,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>kevinhsra</t>
-  </si>
-  <si>
-    <t>brianhsra</t>
-  </si>
-  <si>
-    <t>georgehsra</t>
-  </si>
-  <si>
-    <t>timothyhsra</t>
+    <t>khevinhsra</t>
+  </si>
+  <si>
+    <t>brihansr</t>
+  </si>
+  <si>
+    <t>geohrgehsra</t>
+  </si>
+  <si>
+    <t>timhothyhsr</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -552,10 +552,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -572,10 +572,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -661,10 +661,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -679,10 +679,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,23 +80,23 @@
     <t>stage</t>
   </si>
   <si>
-    <t>khevinhsra</t>
-  </si>
-  <si>
-    <t>brihansr</t>
-  </si>
-  <si>
-    <t>geohrgehsra</t>
-  </si>
-  <si>
-    <t>timhothyhsr</t>
+    <t>snowdrop</t>
+  </si>
+  <si>
+    <t>elodie</t>
+  </si>
+  <si>
+    <t>lara</t>
+  </si>
+  <si>
+    <t>luxury</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,18 +130,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0B3F51"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -178,13 +170,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -552,10 +542,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -572,10 +562,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -610,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -664,7 +654,7 @@
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>snowdrop</t>
-  </si>
-  <si>
-    <t>elodie</t>
-  </si>
-  <si>
-    <t>lara</t>
-  </si>
-  <si>
-    <t>luxury</t>
+    <t>shnowdrops</t>
+  </si>
+  <si>
+    <t>elhodies</t>
+  </si>
+  <si>
+    <t>larahs</t>
+  </si>
+  <si>
+    <t>luxuhrys</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -541,11 +541,11 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -562,10 +562,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -600,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -651,10 +651,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -669,10 +669,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>luxuhrys</t>
+  </si>
+  <si>
+    <t>shroves</t>
+  </si>
+  <si>
+    <t>korley</t>
+  </si>
+  <si>
+    <t>levies</t>
+  </si>
+  <si>
+    <t>laroes</t>
   </si>
 </sst>
 </file>
@@ -173,7 +185,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -542,10 +554,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -562,10 +574,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -600,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -651,11 +663,11 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
+      <c r="A3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -669,11 +681,11 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>password</t>
   </si>
@@ -80,28 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>shnowdrops</t>
-  </si>
-  <si>
-    <t>elhodies</t>
-  </si>
-  <si>
-    <t>larahs</t>
-  </si>
-  <si>
-    <t>luxuhrys</t>
-  </si>
-  <si>
-    <t>shroves</t>
-  </si>
-  <si>
-    <t>korley</t>
-  </si>
-  <si>
-    <t>levies</t>
-  </si>
-  <si>
-    <t>laroes</t>
+    <t>shrovess</t>
+  </si>
+  <si>
+    <t>korleys</t>
+  </si>
+  <si>
+    <t>leviess</t>
+  </si>
+  <si>
+    <t>laroess</t>
   </si>
 </sst>
 </file>
@@ -168,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -181,9 +169,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -490,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -553,7 +538,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -612,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -663,11 +648,11 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -681,11 +666,11 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>shrovess</t>
-  </si>
-  <si>
-    <t>korleys</t>
-  </si>
-  <si>
-    <t>leviess</t>
-  </si>
-  <si>
-    <t>laroess</t>
+    <t>shrhovess</t>
+  </si>
+  <si>
+    <t>khorleys</t>
+  </si>
+  <si>
+    <t>lehviess</t>
+  </si>
+  <si>
+    <t>lahroess</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -169,6 +169,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -475,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -539,10 +542,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -559,10 +562,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -597,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>lahroess</t>
+  </si>
+  <si>
+    <t>shrhovess02</t>
+  </si>
+  <si>
+    <t>khorleys02</t>
+  </si>
+  <si>
+    <t>lehviess02</t>
+  </si>
+  <si>
+    <t>lahroess02</t>
   </si>
 </sst>
 </file>
@@ -478,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -541,12 +553,12 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -563,10 +575,10 @@
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -600,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>password</t>
   </si>
@@ -80,28 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>shrhovess</t>
-  </si>
-  <si>
-    <t>khorleys</t>
-  </si>
-  <si>
-    <t>lehviess</t>
-  </si>
-  <si>
-    <t>lahroess</t>
-  </si>
-  <si>
-    <t>shrhovess02</t>
-  </si>
-  <si>
-    <t>khorleys02</t>
-  </si>
-  <si>
-    <t>lehviess02</t>
-  </si>
-  <si>
-    <t>lahroess02</t>
+    <t>shrhovess03</t>
+  </si>
+  <si>
+    <t>khorleys03</t>
+  </si>
+  <si>
+    <t>lehviess03</t>
+  </si>
+  <si>
+    <t>lahroess03</t>
   </si>
 </sst>
 </file>
@@ -490,7 +478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -554,11 +542,11 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>25</v>
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -574,11 +562,11 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -612,7 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -663,10 +651,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -681,10 +669,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>password</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>lahroess03</t>
+  </si>
+  <si>
+    <t>shrhovess04</t>
+  </si>
+  <si>
+    <t>khorleys04</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,10 +658,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -92,10 +92,16 @@
     <t>lahroess03</t>
   </si>
   <si>
-    <t>shrhovess04</t>
-  </si>
-  <si>
-    <t>khorleys04</t>
+    <t>shrhovess05</t>
+  </si>
+  <si>
+    <t>khorleys05</t>
+  </si>
+  <si>
+    <t>lehviess05</t>
+  </si>
+  <si>
+    <t>lahroess05</t>
   </si>
 </sst>
 </file>
@@ -607,7 +613,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,10 +682,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,18 +80,6 @@
     <t>stage</t>
   </si>
   <si>
-    <t>shrhovess03</t>
-  </si>
-  <si>
-    <t>khorleys03</t>
-  </si>
-  <si>
-    <t>lehviess03</t>
-  </si>
-  <si>
-    <t>lahroess03</t>
-  </si>
-  <si>
     <t>shrhovess05</t>
   </si>
   <si>
@@ -102,6 +90,18 @@
   </si>
   <si>
     <t>lahroess05</t>
+  </si>
+  <si>
+    <t>shrhovess04</t>
+  </si>
+  <si>
+    <t>khorleys04</t>
+  </si>
+  <si>
+    <t>lahroess04</t>
+  </si>
+  <si>
+    <t>lehviess04</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,10 +555,10 @@
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -575,10 +575,10 @@
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -612,7 +612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -664,10 +664,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>password</t>
   </si>
@@ -80,28 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>shrhovess05</t>
-  </si>
-  <si>
-    <t>khorleys05</t>
-  </si>
-  <si>
-    <t>lehviess05</t>
-  </si>
-  <si>
-    <t>lahroess05</t>
-  </si>
-  <si>
-    <t>shrhovess04</t>
-  </si>
-  <si>
-    <t>khorleys04</t>
-  </si>
-  <si>
-    <t>lahroess04</t>
-  </si>
-  <si>
-    <t>lehviess04</t>
+    <t>jackson</t>
+  </si>
+  <si>
+    <t>jack</t>
+  </si>
+  <si>
+    <t>avery</t>
+  </si>
+  <si>
+    <t>wyatt</t>
   </si>
 </sst>
 </file>
@@ -168,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -182,11 +170,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +481,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,12 +543,12 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -574,11 +564,11 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>26</v>
+      <c r="A4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -663,10 +653,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -681,10 +671,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>jackson</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>avery</t>
-  </si>
-  <si>
-    <t>wyatt</t>
+    <t>jackson02</t>
+  </si>
+  <si>
+    <t>jack02</t>
+  </si>
+  <si>
+    <t>avery02</t>
+  </si>
+  <si>
+    <t>wyatt02</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -169,10 +169,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -480,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -653,10 +649,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -671,10 +667,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>jackson02</t>
-  </si>
-  <si>
-    <t>jack02</t>
-  </si>
-  <si>
-    <t>avery02</t>
-  </si>
-  <si>
-    <t>wyatt02</t>
+    <t>jackson03</t>
+  </si>
+  <si>
+    <t>jack03</t>
+  </si>
+  <si>
+    <t>avery03</t>
+  </si>
+  <si>
+    <t>wyatt03</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -169,6 +169,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -476,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,10 +544,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -560,10 +564,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -598,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>jackson03</t>
-  </si>
-  <si>
-    <t>jack03</t>
-  </si>
-  <si>
-    <t>avery03</t>
-  </si>
-  <si>
-    <t>wyatt03</t>
+    <t>jacksonion</t>
+  </si>
+  <si>
+    <t>jackision</t>
+  </si>
+  <si>
+    <t>averyion</t>
+  </si>
+  <si>
+    <t>wyattion</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -543,11 +543,11 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -564,10 +564,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -653,10 +653,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -671,10 +671,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>jacksonion</t>
-  </si>
-  <si>
-    <t>jackision</t>
-  </si>
-  <si>
-    <t>averyion</t>
-  </si>
-  <si>
-    <t>wyattion</t>
+    <t>jacksonions</t>
+  </si>
+  <si>
+    <t>jackisions</t>
+  </si>
+  <si>
+    <t>averyions</t>
+  </si>
+  <si>
+    <t>wyattions</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -544,10 +544,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -564,10 +564,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -653,10 +653,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -671,10 +671,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>jacksonions</t>
-  </si>
-  <si>
-    <t>jackisions</t>
-  </si>
-  <si>
-    <t>averyions</t>
-  </si>
-  <si>
-    <t>wyattions</t>
+    <t>jacksonions01</t>
+  </si>
+  <si>
+    <t>jackisions01</t>
+  </si>
+  <si>
+    <t>averyions01</t>
+  </si>
+  <si>
+    <t>wyattions01</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -544,10 +544,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -564,10 +564,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -652,11 +652,11 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -671,10 +671,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -80,16 +80,16 @@
     <t>stage</t>
   </si>
   <si>
-    <t>jacksonions01</t>
-  </si>
-  <si>
-    <t>jackisions01</t>
-  </si>
-  <si>
-    <t>averyions01</t>
-  </si>
-  <si>
-    <t>wyattions01</t>
+    <t>jacksonions02</t>
+  </si>
+  <si>
+    <t>jackisions02</t>
+  </si>
+  <si>
+    <t>averyions02</t>
+  </si>
+  <si>
+    <t>wyattions02</t>
   </si>
 </sst>
 </file>
@@ -480,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -544,10 +544,10 @@
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -564,10 +564,10 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="6">
@@ -602,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -653,10 +653,10 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="5">
@@ -671,10 +671,10 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C4">

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>password</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>wyattions02</t>
+  </si>
+  <si>
+    <t>jacksonions0502</t>
+  </si>
+  <si>
+    <t>jackisions0502</t>
+  </si>
+  <si>
+    <t>averyions0502</t>
+  </si>
+  <si>
+    <t>wyattions0502</t>
   </si>
 </sst>
 </file>
@@ -545,10 +557,10 @@
     </row>
     <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>5</v>
@@ -565,10 +577,10 @@
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_25DC8826B42BA185B6D597B25B30D22CDF88954B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E883D359-8B6C-4352-85E8-9C17712B977D}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -92,22 +98,22 @@
     <t>wyattions02</t>
   </si>
   <si>
-    <t>jacksonions0502</t>
-  </si>
-  <si>
-    <t>jackisions0502</t>
-  </si>
-  <si>
-    <t>averyions0502</t>
-  </si>
-  <si>
-    <t>wyattions0502</t>
+    <t>ava03</t>
+  </si>
+  <si>
+    <t>ivy03</t>
+  </si>
+  <si>
+    <t>willow03</t>
+  </si>
+  <si>
+    <t>florence03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,8 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -179,12 +184,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -199,14 +199,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +251,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -316,7 +323,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,31 +496,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="13" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="52.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
       <c r="D1" t="s">
@@ -525,24 +531,21 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -551,58 +554,53 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -611,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -620,85 +618,83 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -709,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_25DC8826B42BA185B6D597B25B30D22CDF88954B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E883D359-8B6C-4352-85E8-9C17712B977D}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_25DC8826B42BA185B6D597B25B30D22CDF88954B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EAF0153-47A0-4A55-BA61-856C9944ED87}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>password</t>
   </si>
@@ -86,28 +86,22 @@
     <t>stage</t>
   </si>
   <si>
-    <t>jacksonions02</t>
-  </si>
-  <si>
-    <t>jackisions02</t>
-  </si>
-  <si>
-    <t>averyions02</t>
-  </si>
-  <si>
-    <t>wyattions02</t>
-  </si>
-  <si>
     <t>ava03</t>
   </si>
   <si>
-    <t>ivy03</t>
-  </si>
-  <si>
     <t>willow03</t>
   </si>
   <si>
-    <t>florence03</t>
+    <t>ivy04</t>
+  </si>
+  <si>
+    <t>florence04</t>
+  </si>
+  <si>
+    <t>ivy05</t>
+  </si>
+  <si>
+    <t>florence05</t>
   </si>
 </sst>
 </file>
@@ -499,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,10 +552,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -577,10 +571,10 @@
     </row>
     <row r="4" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -612,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
@@ -661,12 +655,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4">
         <v>5</v>
@@ -680,10 +674,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/src/test/resources/ExcelFiles/LoginCredentials.xlsx
+++ b/src/test/resources/ExcelFiles/LoginCredentials.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_25DC8826B42BA185B6D597B25B30D22CDF88954B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EAF0153-47A0-4A55-BA61-856C9944ED87}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_25DC8826B42BA185B6D597B25B30D22CDF88954B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E228D606-95F9-4452-ADBD-1843BFE8D23E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
     <sheet name="PROD" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LMSProd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>password</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>florence05</t>
+  </si>
+  <si>
+    <t>FPController</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>exam</t>
+  </si>
+  <si>
+    <t>examtaker06</t>
+  </si>
+  <si>
+    <t>proctor006</t>
   </si>
 </sst>
 </file>
@@ -168,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -183,6 +198,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -700,12 +724,95 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="15" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4">
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>